--- a/Class Demo Files/Excel Ch9 (Vol2)/SummaryDemo.xlsx
+++ b/Class Demo Files/Excel Ch9 (Vol2)/SummaryDemo.xlsx
@@ -5,24 +5,25 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Allen\BUS140 OUT\Class Demo Files\Excel Ch9 (Vol2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Class Demo Files\Excel Ch9 (Vol2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7680" windowHeight="4125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Westside" sheetId="2" r:id="rId2"/>
     <sheet name="Eastside" sheetId="3" r:id="rId3"/>
     <sheet name="Downtown" sheetId="4" r:id="rId4"/>
+    <sheet name="Category Totals" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Total</t>
   </si>
@@ -59,16 +60,18 @@
   <si>
     <t>Downtown Location</t>
   </si>
+  <si>
+    <t>Annual Totals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -117,13 +120,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -135,8 +131,45 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006666"/>
+      <name val="Bradley Hand ITC"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="21"/>
+      <name val="Bradley Hand ITC"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,18 +184,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="15"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="24"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="24"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -171,15 +234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -259,18 +313,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -280,88 +332,129 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,71 +463,86 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +550,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -742,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -756,72 +869,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="8">
+        <f>SUM(Westside:Downtown!B3)</f>
+        <v>97000</v>
+      </c>
+      <c r="C3" s="8">
+        <f>SUM(Westside:Downtown!C3)</f>
+        <v>85000</v>
+      </c>
+      <c r="D3" s="8">
+        <f>SUM(Westside:Downtown!D3)</f>
+        <v>75000</v>
+      </c>
+      <c r="E3" s="8">
+        <f>SUM(Westside:Downtown!E3)</f>
+        <v>61000</v>
+      </c>
+      <c r="F3" s="8">
+        <f>SUM(Westside:Downtown!F3)</f>
+        <v>318000</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="8">
+        <f>SUM(Westside:Downtown!B4)</f>
+        <v>108000</v>
+      </c>
+      <c r="C4" s="8">
+        <f>SUM(Westside:Downtown!C4)</f>
+        <v>110000</v>
+      </c>
+      <c r="D4" s="8">
+        <f>SUM(Westside:Downtown!D4)</f>
+        <v>108000</v>
+      </c>
+      <c r="E4" s="8">
+        <f>SUM(Westside:Downtown!E4)</f>
+        <v>109000</v>
+      </c>
+      <c r="F4" s="8">
+        <f>SUM(Westside:Downtown!F4)</f>
+        <v>435000</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="8">
+        <f>SUM(Westside:Downtown!B5)</f>
+        <v>72000</v>
+      </c>
+      <c r="C5" s="8">
+        <f>SUM(Westside:Downtown!C5)</f>
+        <v>95000</v>
+      </c>
+      <c r="D5" s="8">
+        <f>SUM(Westside:Downtown!D5)</f>
+        <v>126000</v>
+      </c>
+      <c r="E5" s="8">
+        <f>SUM(Westside:Downtown!E5)</f>
+        <v>157000</v>
+      </c>
+      <c r="F5" s="8">
+        <f>SUM(Westside:Downtown!F5)</f>
+        <v>450000</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="8">
+        <f>SUM(Westside:Downtown!B6)</f>
+        <v>277000</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUM(Westside:Downtown!C6)</f>
+        <v>290000</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(Westside:Downtown!D6)</f>
+        <v>309000</v>
+      </c>
+      <c r="E6" s="8">
+        <f>SUM(Westside:Downtown!E6)</f>
+        <v>327000</v>
+      </c>
+      <c r="F6" s="8">
+        <f>SUM(Westside:Downtown!F6)</f>
+        <v>1203000</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -847,123 +1020,127 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="20">
         <v>12000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="21">
         <v>10000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="22">
         <v>8000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="39">
         <v>6000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="23">
         <f>SUM(B3:E3)</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="20">
         <v>27000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="21">
         <v>26000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="22">
         <v>26000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="39">
         <v>26000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="23">
         <f>SUM(B4:E4)</f>
         <v>105000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="20">
         <v>25000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="21">
         <v>34000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="22">
         <v>46000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="39">
         <v>60000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="23">
         <f>SUM(B5:E5)</f>
         <v>165000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="24">
         <f>SUM(B3:B5)</f>
         <v>64000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="25">
         <f>SUM(C3:C5)</f>
         <v>70000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="26">
         <f>SUM(D3:D5)</f>
         <v>80000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="40">
         <f>SUM(E3:E5)</f>
         <v>92000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="27">
         <f>SUM(B6:E6)</f>
         <v>306000</v>
       </c>
@@ -979,123 +1156,128 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="28">
         <v>45000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="29">
         <v>41000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="30">
         <v>38000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="41">
         <v>33000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="31">
         <f>SUM(B3:E3)</f>
         <v>157000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="28">
         <v>19000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="29">
         <v>21000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="30">
         <v>20000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="41">
         <v>20000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="31">
         <f>SUM(B4:E4)</f>
         <v>80000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="28">
         <v>25000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="29">
         <v>35000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="30">
         <v>45000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="41">
         <v>55000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="31">
         <f>SUM(B5:E5)</f>
         <v>160000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="32">
         <f>SUM(B3:B5)</f>
         <v>89000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="33">
         <f>SUM(C3:C5)</f>
         <v>97000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="34">
         <f>SUM(D3:D5)</f>
         <v>103000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>108000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="35">
         <f>SUM(B6:E6)</f>
         <v>397000</v>
       </c>
@@ -1111,125 +1293,189 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="28">
         <v>40000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="29">
         <v>34000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="30">
         <v>29000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="41">
         <v>22000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="31">
         <f>SUM(B3:E3)</f>
         <v>125000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="28">
         <v>62000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="29">
         <v>63000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="30">
         <v>62000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="41">
         <v>63000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="31">
         <f>SUM(B4:E4)</f>
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="28">
         <v>22000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="29">
         <v>26000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="30">
         <v>35000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="41">
         <v>42000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="31">
         <f>SUM(B5:E5)</f>
         <v>125000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="32">
         <f>SUM(B3:B5)</f>
         <v>124000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="33">
         <f>SUM(C3:C5)</f>
         <v>123000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="34">
         <f>SUM(D3:D5)</f>
         <v>126000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>127000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="35">
         <f>SUM(B6:E6)</f>
         <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <f>SUM(Westside!B3:E3,Eastside!B3:E3,Downtown!B3:E3)</f>
+        <v>318000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <f>SUM(Westside!B4:E4,Eastside!B4:E4,Downtown!B4:E4)</f>
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <f>SUM(Westside!B5:E5,Eastside!B5:E5,Downtown!B5:E5)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8">
+        <f>SUM(Westside!B6:E6,Eastside!B6:E6,Downtown!B6:E6)</f>
+        <v>1203000</v>
       </c>
     </row>
   </sheetData>

--- a/Class Demo Files/Excel Ch9 (Vol2)/SummaryDemo.xlsx
+++ b/Class Demo Files/Excel Ch9 (Vol2)/SummaryDemo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -79,6 +79,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -89,6 +90,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -96,12 +98,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -109,6 +113,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -116,6 +121,7 @@
       <sz val="16"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -167,6 +173,12 @@
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -451,10 +463,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -486,15 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,8 +548,21 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -855,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -870,13 +887,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -1011,7 +1028,13 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.47" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;L&amp;D&amp;C&amp;A&amp;R&amp;P of &amp;N
+ </oddFooter>
+  </headerFooter>
+  <cellWatches>
+    <cellWatch r="F6"/>
+  </cellWatches>
 </worksheet>
 </file>
 
@@ -1019,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1030,124 +1053,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>12000</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>10000</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="19">
         <v>8000</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="36">
         <v>6000</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="20">
         <f>SUM(B3:E3)</f>
         <v>36000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>27000</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>26000</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>26000</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="36">
         <v>26000</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <f>SUM(B4:E4)</f>
         <v>105000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>25000</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>34000</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>46000</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="36">
         <v>60000</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <f>SUM(B5:E5)</f>
         <v>165000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <f>SUM(B3:B5)</f>
         <v>64000</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <f>SUM(C3:C5)</f>
         <v>70000</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="23">
         <f>SUM(D3:D5)</f>
         <v>80000</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="37">
         <f>SUM(E3:E5)</f>
         <v>92000</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="24">
         <f>SUM(B6:E6)</f>
         <v>306000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataConsolidate/>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter data greater than 0_x000a__x000a_" sqref="B3:E5 F4:F5">
+      <formula1>0</formula1>
+      <formula2>100000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error Alert" error="You are not allowed to enter negative numbers_x000a__x000a_" prompt="Enter data greater than 0_x000a__x000a_" sqref="F3">
+      <formula1>0</formula1>
+      <formula2>100000000</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Category Totals'!A1" display="1st Quarter"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1.47" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;L&amp;D&amp;C&amp;A&amp;R
+&amp;P of &amp;N
+ </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1155,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,124 +1209,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>45000</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="26">
         <v>41000</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <v>38000</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>33000</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <f>SUM(B3:E3)</f>
         <v>157000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="25">
         <v>19000</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="26">
         <v>21000</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>20000</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="38">
         <v>20000</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <f>SUM(B4:E4)</f>
         <v>80000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="25">
         <v>25000</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>35000</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="27">
         <v>45000</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>55000</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f>SUM(B5:E5)</f>
         <v>160000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <f>SUM(B3:B5)</f>
         <v>89000</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <f>SUM(C3:C5)</f>
         <v>97000</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <f>SUM(D3:D5)</f>
         <v>103000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="39">
         <f>SUM(E3:E5)</f>
         <v>108000</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="32">
         <f>SUM(B6:E6)</f>
         <v>397000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1.47" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;L&amp;D&amp;C&amp;A&amp;R
+&amp;P of &amp;N
+ </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1292,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1303,123 +1350,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>40000</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="26">
         <v>34000</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <v>29000</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="38">
         <v>22000</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <f>SUM(B3:E3)</f>
         <v>125000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="25">
         <v>62000</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="26">
         <v>63000</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>62000</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="38">
         <v>63000</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <f>SUM(B4:E4)</f>
         <v>250000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="25">
         <v>22000</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>26000</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="27">
         <v>35000</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="38">
         <v>42000</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f>SUM(B5:E5)</f>
         <v>125000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <f>SUM(B3:B5)</f>
         <v>124000</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <f>SUM(C3:C5)</f>
         <v>123000</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <f>SUM(D3:D5)</f>
         <v>126000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="39">
         <f>SUM(E3:E5)</f>
         <v>127000</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="32">
         <f>SUM(B6:E6)</f>
         <v>500000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1.47" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;L&amp;D&amp;C&amp;A&amp;R
+&amp;P of &amp;N
+ </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1427,9 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1438,7 +1489,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1479,6 +1530,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1.47" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;L&amp;D&amp;C&amp;A&amp;R
+&amp;P of &amp;N
+ </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>